--- a/biology/Zoologie/Alauda/Alauda.xlsx
+++ b/biology/Zoologie/Alauda/Alauda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Alauda regroupe des alouettes, oiseaux appartenant à la famille des Alaudidae.
 L’Alauda est aussi le premier nom donné au chœur des Petits Chanteurs d'Asnières.
@@ -512,11 +524,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La vaste étude phylogénique d'Alström et al. (2013) amène à une révision complète de la famille des Alaudidae. Cela amène le Congrès ornithologique international (version 4.2, 2014) à déplacer l'espèce Alouette leucoptère (anciennement Melanocorypha leucoptera) dans ce genre.
-Liste des espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vaste étude phylogénique d'Alström et al. (2013) amène à une révision complète de la famille des Alaudidae. Cela amène le Congrès ornithologique international (version 4.2, 2014) à déplacer l'espèce Alouette leucoptère (anciennement Melanocorypha leucoptera) dans ce genre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alauda</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alauda</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Alauda leucoptera – Alouette leucoptère
 Alauda razae – Alouette de Razo
 Alauda gulgula – Alouette gulgule
